--- a/site-db.xlsx
+++ b/site-db.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0b3ffe3a7cf0e2e/Shahrak/Site/www/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B2725675-FFA3-4D8E-BC95-C0A8337A908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF1AED0A-540E-4DC6-9BAF-457406491648}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B2725675-FFA3-4D8E-BC95-C0A8337A908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19C912D-2B8C-447A-93BE-1930F0291305}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AB2AFE-4AC8-4A5E-9EF3-96A7BC549DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$213</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="226">
   <si>
     <t>password</t>
   </si>
@@ -698,16 +701,22 @@
     <t>تیپ واحد</t>
   </si>
   <si>
-    <t>متراژ واحد</t>
-  </si>
-  <si>
-    <t>مبلغ شارژ</t>
-  </si>
-  <si>
-    <t>بدهی شما تا مرداد 1404</t>
-  </si>
-  <si>
     <t>تعداد خودرو مجاز به ورود به مجتمع</t>
+  </si>
+  <si>
+    <t>وضعیت پارکینگ</t>
+  </si>
+  <si>
+    <t>بدهی شما تا پایان  مرداد ماه 1404 (ریال)</t>
+  </si>
+  <si>
+    <t>مبلغ شارژ ( ریال)</t>
+  </si>
+  <si>
+    <t>دارد</t>
+  </si>
+  <si>
+    <t>ندارد</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1150,7 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M8" sqref="M8:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -1149,11 +1158,11 @@
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="8" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1173,17 +1182,17 @@
       <c r="E1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>220</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1202,17 +1211,17 @@
       <c r="E2" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="3">
-        <v>84.3</v>
+      <c r="F2" s="7">
+        <v>4780000</v>
       </c>
       <c r="G2" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I2" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1231,14 +1240,14 @@
       <c r="E3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="3">
-        <v>84.3</v>
+      <c r="F3" s="7">
+        <v>4780000</v>
       </c>
       <c r="G3" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1260,17 +1269,17 @@
       <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="3">
-        <v>84.3</v>
+      <c r="F4" s="7">
+        <v>4780000</v>
       </c>
       <c r="G4" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I4" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1289,17 +1298,17 @@
       <c r="E5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="3">
-        <v>84.3</v>
+      <c r="F5" s="7">
+        <v>4780000</v>
       </c>
       <c r="G5" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I5" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1318,17 +1327,17 @@
       <c r="E6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="3">
-        <v>84.3</v>
+      <c r="F6" s="7">
+        <v>4780000</v>
       </c>
       <c r="G6" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1347,17 +1356,17 @@
       <c r="E7" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="3">
-        <v>84.3</v>
+      <c r="F7" s="7">
+        <v>4780000</v>
       </c>
       <c r="G7" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I7" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1376,17 +1385,17 @@
       <c r="E8" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="3">
-        <v>84.3</v>
+      <c r="F8" s="7">
+        <v>4780000</v>
       </c>
       <c r="G8" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1405,14 +1414,14 @@
       <c r="E9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="3">
-        <v>84.3</v>
+      <c r="F9" s="7">
+        <v>4780000</v>
       </c>
       <c r="G9" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -1434,17 +1443,17 @@
       <c r="E10" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="3">
-        <v>84.3</v>
+      <c r="F10" s="7">
+        <v>4780000</v>
       </c>
       <c r="G10" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1463,17 +1472,17 @@
       <c r="E11" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="3">
-        <v>84.3</v>
+      <c r="F11" s="7">
+        <v>4780000</v>
       </c>
       <c r="G11" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I11" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1492,17 +1501,17 @@
       <c r="E12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="3">
-        <v>84.3</v>
+      <c r="F12" s="7">
+        <v>4780000</v>
       </c>
       <c r="G12" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I12" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1521,17 +1530,17 @@
       <c r="E13" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="3">
-        <v>84.3</v>
+      <c r="F13" s="7">
+        <v>4780000</v>
       </c>
       <c r="G13" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I13" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1550,17 +1559,17 @@
       <c r="E14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="3">
-        <v>84.3</v>
+      <c r="F14" s="7">
+        <v>4780000</v>
       </c>
       <c r="G14" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I14" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1579,17 +1588,17 @@
       <c r="E15" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="3">
-        <v>84.3</v>
+      <c r="F15" s="7">
+        <v>4780000</v>
       </c>
       <c r="G15" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I15" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1608,17 +1617,17 @@
       <c r="E16" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="3">
-        <v>84.3</v>
+      <c r="F16" s="7">
+        <v>4780000</v>
       </c>
       <c r="G16" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I16" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1637,17 +1646,17 @@
       <c r="E17" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="3">
-        <v>84.3</v>
+      <c r="F17" s="7">
+        <v>4780000</v>
       </c>
       <c r="G17" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1666,17 +1675,17 @@
       <c r="E18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="3">
-        <v>84.3</v>
+      <c r="F18" s="7">
+        <v>4780000</v>
       </c>
       <c r="G18" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I18" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1695,14 +1704,14 @@
       <c r="E19" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="3">
-        <v>84.3</v>
+      <c r="F19" s="7">
+        <v>4780000</v>
       </c>
       <c r="G19" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
@@ -1724,17 +1733,17 @@
       <c r="E20" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="3">
-        <v>84.3</v>
+      <c r="F20" s="7">
+        <v>4780000</v>
       </c>
       <c r="G20" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I20" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1753,14 +1762,14 @@
       <c r="E21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="3">
-        <v>84.3</v>
+      <c r="F21" s="7">
+        <v>4780000</v>
       </c>
       <c r="G21" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -1782,17 +1791,17 @@
       <c r="E22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="3">
-        <v>84.3</v>
+      <c r="F22" s="7">
+        <v>4780000</v>
       </c>
       <c r="G22" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1811,14 +1820,14 @@
       <c r="E23" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="3">
-        <v>84.3</v>
+      <c r="F23" s="7">
+        <v>4780000</v>
       </c>
       <c r="G23" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -1840,14 +1849,14 @@
       <c r="E24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="3">
-        <v>84.3</v>
+      <c r="F24" s="7">
+        <v>4780000</v>
       </c>
       <c r="G24" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -1869,17 +1878,17 @@
       <c r="E25" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="3">
-        <v>84.3</v>
+      <c r="F25" s="7">
+        <v>4780000</v>
       </c>
       <c r="G25" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I25" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1898,17 +1907,17 @@
       <c r="E26" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="3">
-        <v>84.3</v>
+      <c r="F26" s="7">
+        <v>4780000</v>
       </c>
       <c r="G26" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1927,17 +1936,17 @@
       <c r="E27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="3">
-        <v>84.3</v>
+      <c r="F27" s="7">
+        <v>4780000</v>
       </c>
       <c r="G27" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1956,17 +1965,17 @@
       <c r="E28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="3">
-        <v>84.3</v>
+      <c r="F28" s="7">
+        <v>4780000</v>
       </c>
       <c r="G28" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -1985,17 +1994,17 @@
       <c r="E29" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="3">
-        <v>84.3</v>
+      <c r="F29" s="7">
+        <v>4780000</v>
       </c>
       <c r="G29" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I29" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2014,17 +2023,17 @@
       <c r="E30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="3">
-        <v>84.3</v>
+      <c r="F30" s="7">
+        <v>4780000</v>
       </c>
       <c r="G30" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I30" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2043,17 +2052,17 @@
       <c r="E31" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="3">
-        <v>84.3</v>
+      <c r="F31" s="7">
+        <v>4780000</v>
       </c>
       <c r="G31" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I31" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2072,17 +2081,17 @@
       <c r="E32" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="3">
-        <v>84.3</v>
+      <c r="F32" s="7">
+        <v>4780000</v>
       </c>
       <c r="G32" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I32" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2101,17 +2110,17 @@
       <c r="E33" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="3">
-        <v>84.3</v>
+      <c r="F33" s="7">
+        <v>4780000</v>
       </c>
       <c r="G33" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I33" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2130,14 +2139,14 @@
       <c r="E34" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="3">
-        <v>84.3</v>
+      <c r="F34" s="7">
+        <v>4780000</v>
       </c>
       <c r="G34" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -2159,14 +2168,14 @@
       <c r="E35" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="3">
-        <v>84.3</v>
+      <c r="F35" s="7">
+        <v>4780000</v>
       </c>
       <c r="G35" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -2188,17 +2197,17 @@
       <c r="E36" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="3">
-        <v>84.3</v>
+      <c r="F36" s="7">
+        <v>4780000</v>
       </c>
       <c r="G36" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I36" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2217,17 +2226,17 @@
       <c r="E37" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="3">
-        <v>84.3</v>
+      <c r="F37" s="7">
+        <v>4780000</v>
       </c>
       <c r="G37" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2246,14 +2255,14 @@
       <c r="E38" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F38" s="3">
-        <v>84.3</v>
+      <c r="F38" s="7">
+        <v>4780000</v>
       </c>
       <c r="G38" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -2275,17 +2284,17 @@
       <c r="E39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="3">
-        <v>84.3</v>
+      <c r="F39" s="7">
+        <v>4780000</v>
       </c>
       <c r="G39" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2304,17 +2313,17 @@
       <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F40" s="3">
-        <v>84.3</v>
+      <c r="F40" s="7">
+        <v>4780000</v>
       </c>
       <c r="G40" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I40" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2333,14 +2342,14 @@
       <c r="E41" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="3">
-        <v>84.3</v>
+      <c r="F41" s="7">
+        <v>4780000</v>
       </c>
       <c r="G41" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H41" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -2362,17 +2371,17 @@
       <c r="E42" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="3">
-        <v>84.3</v>
+      <c r="F42" s="7">
+        <v>4780000</v>
       </c>
       <c r="G42" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I42" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2391,17 +2400,17 @@
       <c r="E43" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F43" s="3">
-        <v>84.3</v>
+      <c r="F43" s="7">
+        <v>4780000</v>
       </c>
       <c r="G43" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I43" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2420,17 +2429,17 @@
       <c r="E44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="3">
-        <v>84.3</v>
+      <c r="F44" s="7">
+        <v>4780000</v>
       </c>
       <c r="G44" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I44" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2449,17 +2458,17 @@
       <c r="E45" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="3">
-        <v>84.3</v>
+      <c r="F45" s="7">
+        <v>4780000</v>
       </c>
       <c r="G45" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I45" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2478,17 +2487,17 @@
       <c r="E46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="3">
-        <v>84.3</v>
+      <c r="F46" s="7">
+        <v>4780000</v>
       </c>
       <c r="G46" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2507,17 +2516,17 @@
       <c r="E47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="3">
-        <v>84.3</v>
+      <c r="F47" s="7">
+        <v>4780000</v>
       </c>
       <c r="G47" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I47" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2536,17 +2545,17 @@
       <c r="E48" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="3">
-        <v>84.3</v>
+      <c r="F48" s="7">
+        <v>4780000</v>
       </c>
       <c r="G48" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I48" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2565,17 +2574,17 @@
       <c r="E49" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="3">
-        <v>84.3</v>
+      <c r="F49" s="7">
+        <v>4780000</v>
       </c>
       <c r="G49" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I49" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2594,14 +2603,14 @@
       <c r="E50" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="3">
-        <v>84.3</v>
+      <c r="F50" s="7">
+        <v>4780000</v>
       </c>
       <c r="G50" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -2623,14 +2632,14 @@
       <c r="E51" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F51" s="3">
-        <v>84.3</v>
+      <c r="F51" s="7">
+        <v>4780000</v>
       </c>
       <c r="G51" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -2652,14 +2661,14 @@
       <c r="E52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="3">
-        <v>84.3</v>
+      <c r="F52" s="7">
+        <v>4780000</v>
       </c>
       <c r="G52" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -2681,17 +2690,17 @@
       <c r="E53" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="3">
-        <v>84.3</v>
+      <c r="F53" s="7">
+        <v>4780000</v>
       </c>
       <c r="G53" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I53" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2710,17 +2719,17 @@
       <c r="E54" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="3">
-        <v>84.3</v>
+      <c r="F54" s="7">
+        <v>4780000</v>
       </c>
       <c r="G54" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I54" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2739,14 +2748,14 @@
       <c r="E55" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="3">
-        <v>84.3</v>
+      <c r="F55" s="7">
+        <v>4780000</v>
       </c>
       <c r="G55" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -2768,17 +2777,17 @@
       <c r="E56" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="3">
-        <v>84.3</v>
+      <c r="F56" s="7">
+        <v>4780000</v>
       </c>
       <c r="G56" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H56" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I56" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2797,14 +2806,14 @@
       <c r="E57" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="3">
-        <v>84.3</v>
+      <c r="F57" s="7">
+        <v>4780000</v>
       </c>
       <c r="G57" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -2826,17 +2835,17 @@
       <c r="E58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="3">
-        <v>84.3</v>
+      <c r="F58" s="7">
+        <v>4780000</v>
       </c>
       <c r="G58" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H58" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2855,14 +2864,14 @@
       <c r="E59" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="3">
-        <v>84.3</v>
+      <c r="F59" s="7">
+        <v>4780000</v>
       </c>
       <c r="G59" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H59" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -2884,17 +2893,17 @@
       <c r="E60" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="3">
-        <v>84.3</v>
+      <c r="F60" s="7">
+        <v>4780000</v>
       </c>
       <c r="G60" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H60" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2913,17 +2922,17 @@
       <c r="E61" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="3">
-        <v>84.3</v>
+      <c r="F61" s="7">
+        <v>4780000</v>
       </c>
       <c r="G61" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2942,17 +2951,17 @@
       <c r="E62" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F62" s="3">
-        <v>84.3</v>
+      <c r="F62" s="7">
+        <v>4780000</v>
       </c>
       <c r="G62" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -2971,17 +2980,17 @@
       <c r="E63" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="3">
-        <v>84.3</v>
+      <c r="F63" s="7">
+        <v>4780000</v>
       </c>
       <c r="G63" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I63" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3000,17 +3009,17 @@
       <c r="E64" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F64" s="3">
-        <v>84.3</v>
+      <c r="F64" s="7">
+        <v>4780000</v>
       </c>
       <c r="G64" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H64" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3029,17 +3038,17 @@
       <c r="E65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F65" s="3">
-        <v>84.3</v>
+      <c r="F65" s="7">
+        <v>4780000</v>
       </c>
       <c r="G65" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I65" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3058,14 +3067,14 @@
       <c r="E66" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F66" s="3">
-        <v>84.3</v>
+      <c r="F66" s="7">
+        <v>4780000</v>
       </c>
       <c r="G66" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I66" s="6">
         <v>1</v>
@@ -3087,14 +3096,14 @@
       <c r="E67" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F67" s="3">
-        <v>84.3</v>
+      <c r="F67" s="7">
+        <v>4780000</v>
       </c>
       <c r="G67" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H67" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I67" s="6">
         <v>1</v>
@@ -3116,17 +3125,17 @@
       <c r="E68" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F68" s="3">
-        <v>84.3</v>
+      <c r="F68" s="7">
+        <v>4780000</v>
       </c>
       <c r="G68" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H68" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I68" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3145,17 +3154,17 @@
       <c r="E69" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="3">
-        <v>84.3</v>
+      <c r="F69" s="7">
+        <v>4780000</v>
       </c>
       <c r="G69" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H69" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I69" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3174,17 +3183,17 @@
       <c r="E70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="3">
-        <v>84.3</v>
+      <c r="F70" s="7">
+        <v>4780000</v>
       </c>
       <c r="G70" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H70" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I70" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3203,17 +3212,17 @@
       <c r="E71" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F71" s="3">
-        <v>84.3</v>
+      <c r="F71" s="7">
+        <v>4780000</v>
       </c>
       <c r="G71" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H71" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I71" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3232,17 +3241,17 @@
       <c r="E72" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="3">
-        <v>84.3</v>
+      <c r="F72" s="7">
+        <v>4780000</v>
       </c>
       <c r="G72" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H72" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I72" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3261,14 +3270,14 @@
       <c r="E73" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F73" s="3">
-        <v>84.3</v>
+      <c r="F73" s="7">
+        <v>4780000</v>
       </c>
       <c r="G73" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
@@ -3290,17 +3299,17 @@
       <c r="E74" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F74" s="3">
-        <v>84.3</v>
+      <c r="F74" s="7">
+        <v>4780000</v>
       </c>
       <c r="G74" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I74" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3319,14 +3328,14 @@
       <c r="E75" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F75" s="3">
-        <v>84.3</v>
+      <c r="F75" s="7">
+        <v>4780000</v>
       </c>
       <c r="G75" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H75" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H75" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -3348,17 +3357,17 @@
       <c r="E76" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F76" s="3">
-        <v>84.3</v>
+      <c r="F76" s="7">
+        <v>4780000</v>
       </c>
       <c r="G76" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H76" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I76" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3377,17 +3386,17 @@
       <c r="E77" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F77" s="3">
-        <v>84.3</v>
+      <c r="F77" s="7">
+        <v>4780000</v>
       </c>
       <c r="G77" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H77" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H77" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I77" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3406,17 +3415,17 @@
       <c r="E78" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F78" s="3">
-        <v>84.3</v>
+      <c r="F78" s="7">
+        <v>4780000</v>
       </c>
       <c r="G78" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H78" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H78" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I78" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3435,17 +3444,17 @@
       <c r="E79" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F79" s="3">
-        <v>84.3</v>
+      <c r="F79" s="7">
+        <v>4780000</v>
       </c>
       <c r="G79" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I79" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3464,14 +3473,14 @@
       <c r="E80" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="3">
-        <v>84.3</v>
+      <c r="F80" s="7">
+        <v>4780000</v>
       </c>
       <c r="G80" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H80" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -3493,17 +3502,17 @@
       <c r="E81" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F81" s="3">
-        <v>84.3</v>
+      <c r="F81" s="7">
+        <v>4780000</v>
       </c>
       <c r="G81" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H81" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H81" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I81" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3522,14 +3531,14 @@
       <c r="E82" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="3">
-        <v>84.3</v>
+      <c r="F82" s="7">
+        <v>4780000</v>
       </c>
       <c r="G82" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H82" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -3551,17 +3560,17 @@
       <c r="E83" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="3">
-        <v>84.3</v>
+      <c r="F83" s="7">
+        <v>4780000</v>
       </c>
       <c r="G83" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H83" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I83" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3580,17 +3589,17 @@
       <c r="E84" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F84" s="3">
-        <v>84.3</v>
+      <c r="F84" s="7">
+        <v>4780000</v>
       </c>
       <c r="G84" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H84" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H84" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I84" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3609,17 +3618,17 @@
       <c r="E85" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="3">
-        <v>84.3</v>
+      <c r="F85" s="7">
+        <v>4780000</v>
       </c>
       <c r="G85" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3638,17 +3647,17 @@
       <c r="E86" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="3">
-        <v>84.3</v>
+      <c r="F86" s="7">
+        <v>4780000</v>
       </c>
       <c r="G86" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H86" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3667,14 +3676,14 @@
       <c r="E87" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F87" s="3">
-        <v>84.3</v>
+      <c r="F87" s="7">
+        <v>4780000</v>
       </c>
       <c r="G87" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H87" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -3696,17 +3705,17 @@
       <c r="E88" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F88" s="3">
-        <v>84.3</v>
+      <c r="F88" s="7">
+        <v>4780000</v>
       </c>
       <c r="G88" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H88" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I88" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3725,17 +3734,17 @@
       <c r="E89" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="3">
-        <v>84.3</v>
+      <c r="F89" s="7">
+        <v>4780000</v>
       </c>
       <c r="G89" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H89" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I89" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3754,17 +3763,17 @@
       <c r="E90" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F90" s="3">
-        <v>84.3</v>
+      <c r="F90" s="7">
+        <v>4780000</v>
       </c>
       <c r="G90" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H90" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I90" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3783,17 +3792,17 @@
       <c r="E91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F91" s="3">
-        <v>84.3</v>
+      <c r="F91" s="7">
+        <v>4780000</v>
       </c>
       <c r="G91" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H91" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I91" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3812,17 +3821,17 @@
       <c r="E92" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="3">
-        <v>84.3</v>
+      <c r="F92" s="7">
+        <v>4780000</v>
       </c>
       <c r="G92" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H92" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I92" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3841,17 +3850,17 @@
       <c r="E93" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="3">
-        <v>84.3</v>
+      <c r="F93" s="7">
+        <v>4780000</v>
       </c>
       <c r="G93" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H93" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H93" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I93" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3870,17 +3879,17 @@
       <c r="E94" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="3">
-        <v>84.3</v>
+      <c r="F94" s="7">
+        <v>4780000</v>
       </c>
       <c r="G94" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H94" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I94" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3899,17 +3908,17 @@
       <c r="E95" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F95" s="3">
-        <v>84.3</v>
+      <c r="F95" s="7">
+        <v>4780000</v>
       </c>
       <c r="G95" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H95" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H95" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I95" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3928,17 +3937,17 @@
       <c r="E96" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F96" s="3">
-        <v>84.3</v>
+      <c r="F96" s="7">
+        <v>4780000</v>
       </c>
       <c r="G96" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H96" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I96" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3957,17 +3966,17 @@
       <c r="E97" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F97" s="3">
-        <v>84.3</v>
+      <c r="F97" s="7">
+        <v>4780000</v>
       </c>
       <c r="G97" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H97" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H97" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I97" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -3986,17 +3995,17 @@
       <c r="E98" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="3">
-        <v>84.3</v>
+      <c r="F98" s="7">
+        <v>4780000</v>
       </c>
       <c r="G98" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I98" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4015,14 +4024,14 @@
       <c r="E99" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="3">
-        <v>84.3</v>
+      <c r="F99" s="7">
+        <v>4780000</v>
       </c>
       <c r="G99" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H99" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I99" s="6">
         <v>1</v>
@@ -4044,17 +4053,17 @@
       <c r="E100" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F100" s="3">
-        <v>84.3</v>
+      <c r="F100" s="7">
+        <v>4780000</v>
       </c>
       <c r="G100" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H100" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H100" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I100" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4073,14 +4082,14 @@
       <c r="E101" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F101" s="3">
-        <v>84.3</v>
+      <c r="F101" s="7">
+        <v>4780000</v>
       </c>
       <c r="G101" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H101" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I101" s="6">
         <v>1</v>
@@ -4102,17 +4111,17 @@
       <c r="E102" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F102" s="3">
-        <v>84.3</v>
+      <c r="F102" s="7">
+        <v>4780000</v>
       </c>
       <c r="G102" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H102" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I102" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4131,17 +4140,17 @@
       <c r="E103" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F103" s="3">
-        <v>84.3</v>
+      <c r="F103" s="7">
+        <v>4780000</v>
       </c>
       <c r="G103" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H103" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I103" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4160,14 +4169,14 @@
       <c r="E104" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F104" s="3">
-        <v>84.3</v>
+      <c r="F104" s="7">
+        <v>4780000</v>
       </c>
       <c r="G104" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H104" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H104" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I104" s="6">
         <v>1</v>
@@ -4189,14 +4198,14 @@
       <c r="E105" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F105" s="3">
-        <v>84.3</v>
+      <c r="F105" s="7">
+        <v>4780000</v>
       </c>
       <c r="G105" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H105" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H105" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I105" s="6">
         <v>1</v>
@@ -4218,17 +4227,17 @@
       <c r="E106" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F106" s="3">
-        <v>84.3</v>
+      <c r="F106" s="7">
+        <v>4780000</v>
       </c>
       <c r="G106" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H106" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I106" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4247,17 +4256,17 @@
       <c r="E107" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F107" s="3">
-        <v>84.3</v>
+      <c r="F107" s="7">
+        <v>4780000</v>
       </c>
       <c r="G107" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H107" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H107" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I107" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4276,17 +4285,17 @@
       <c r="E108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F108" s="3">
-        <v>84.3</v>
+      <c r="F108" s="7">
+        <v>4780000</v>
       </c>
       <c r="G108" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H108" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H108" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I108" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4305,17 +4314,17 @@
       <c r="E109" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F109" s="3">
-        <v>84.3</v>
+      <c r="F109" s="7">
+        <v>4780000</v>
       </c>
       <c r="G109" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H109" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H109" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I109" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4334,17 +4343,17 @@
       <c r="E110" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="3">
-        <v>84.3</v>
+      <c r="F110" s="7">
+        <v>4780000</v>
       </c>
       <c r="G110" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H110" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I110" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4363,17 +4372,17 @@
       <c r="E111" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F111" s="3">
-        <v>84.3</v>
+      <c r="F111" s="7">
+        <v>4780000</v>
       </c>
       <c r="G111" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H111" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I111" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4392,17 +4401,17 @@
       <c r="E112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F112" s="3">
-        <v>84.3</v>
+      <c r="F112" s="7">
+        <v>4780000</v>
       </c>
       <c r="G112" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H112" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I112" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4421,17 +4430,17 @@
       <c r="E113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="3">
-        <v>84.3</v>
+      <c r="F113" s="7">
+        <v>4780000</v>
       </c>
       <c r="G113" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H113" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H113" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I113" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4450,14 +4459,14 @@
       <c r="E114" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F114" s="3">
-        <v>84.3</v>
+      <c r="F114" s="7">
+        <v>4780000</v>
       </c>
       <c r="G114" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H114" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H114" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -4479,14 +4488,14 @@
       <c r="E115" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F115" s="3">
-        <v>84.3</v>
+      <c r="F115" s="7">
+        <v>4780000</v>
       </c>
       <c r="G115" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H115" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -4508,17 +4517,17 @@
       <c r="E116" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F116" s="3">
-        <v>84.3</v>
+      <c r="F116" s="7">
+        <v>4780000</v>
       </c>
       <c r="G116" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H116" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H116" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I116" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4537,17 +4546,17 @@
       <c r="E117" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F117" s="3">
-        <v>84.3</v>
+      <c r="F117" s="7">
+        <v>4780000</v>
       </c>
       <c r="G117" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H117" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H117" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I117" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4566,17 +4575,17 @@
       <c r="E118" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F118" s="3">
-        <v>84.3</v>
+      <c r="F118" s="7">
+        <v>4780000</v>
       </c>
       <c r="G118" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H118" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H118" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I118" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4595,17 +4604,17 @@
       <c r="E119" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F119" s="3">
-        <v>84.3</v>
+      <c r="F119" s="7">
+        <v>4780000</v>
       </c>
       <c r="G119" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H119" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H119" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I119" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4624,14 +4633,14 @@
       <c r="E120" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F120" s="3">
-        <v>84.3</v>
+      <c r="F120" s="7">
+        <v>4780000</v>
       </c>
       <c r="G120" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H120" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -4653,14 +4662,14 @@
       <c r="E121" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F121" s="3">
-        <v>84.3</v>
+      <c r="F121" s="7">
+        <v>4780000</v>
       </c>
       <c r="G121" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H121" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H121" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -4682,17 +4691,17 @@
       <c r="E122" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F122" s="3">
-        <v>84.3</v>
+      <c r="F122" s="7">
+        <v>4780000</v>
       </c>
       <c r="G122" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H122" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I122" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4711,14 +4720,14 @@
       <c r="E123" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F123" s="3">
-        <v>84.3</v>
+      <c r="F123" s="7">
+        <v>4780000</v>
       </c>
       <c r="G123" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H123" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I123" s="6">
         <v>1</v>
@@ -4740,17 +4749,17 @@
       <c r="E124" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F124" s="3">
-        <v>84.3</v>
+      <c r="F124" s="7">
+        <v>4780000</v>
       </c>
       <c r="G124" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H124" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I124" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4769,14 +4778,14 @@
       <c r="E125" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F125" s="3">
-        <v>84.3</v>
+      <c r="F125" s="7">
+        <v>4780000</v>
       </c>
       <c r="G125" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H125" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I125" s="6">
         <v>1</v>
@@ -4798,17 +4807,17 @@
       <c r="E126" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F126" s="3">
-        <v>84.3</v>
+      <c r="F126" s="7">
+        <v>4780000</v>
       </c>
       <c r="G126" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H126" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H126" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I126" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4827,17 +4836,17 @@
       <c r="E127" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="3">
-        <v>84.3</v>
+      <c r="F127" s="7">
+        <v>4780000</v>
       </c>
       <c r="G127" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H127" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I127" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4856,17 +4865,17 @@
       <c r="E128" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F128" s="3">
-        <v>84.3</v>
+      <c r="F128" s="7">
+        <v>4780000</v>
       </c>
       <c r="G128" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H128" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I128" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4885,17 +4894,17 @@
       <c r="E129" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F129" s="3">
-        <v>84.3</v>
+      <c r="F129" s="7">
+        <v>4780000</v>
       </c>
       <c r="G129" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H129" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I129" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4914,17 +4923,17 @@
       <c r="E130" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="3">
-        <v>84.3</v>
+      <c r="F130" s="7">
+        <v>4780000</v>
       </c>
       <c r="G130" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H130" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I130" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4943,17 +4952,17 @@
       <c r="E131" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F131" s="3">
-        <v>84.3</v>
+      <c r="F131" s="7">
+        <v>4780000</v>
       </c>
       <c r="G131" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H131" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I131" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -4972,17 +4981,17 @@
       <c r="E132" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F132" s="3">
-        <v>84.3</v>
+      <c r="F132" s="7">
+        <v>4780000</v>
       </c>
       <c r="G132" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H132" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H132" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I132" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5001,17 +5010,17 @@
       <c r="E133" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F133" s="3">
-        <v>84.3</v>
+      <c r="F133" s="7">
+        <v>4780000</v>
       </c>
       <c r="G133" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H133" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I133" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5030,17 +5039,17 @@
       <c r="E134" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F134" s="3">
-        <v>84.3</v>
+      <c r="F134" s="7">
+        <v>4780000</v>
       </c>
       <c r="G134" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H134" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H134" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I134" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5059,17 +5068,17 @@
       <c r="E135" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F135" s="3">
-        <v>84.3</v>
+      <c r="F135" s="7">
+        <v>4780000</v>
       </c>
       <c r="G135" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H135" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I135" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5088,14 +5097,14 @@
       <c r="E136" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F136" s="3">
-        <v>84.3</v>
+      <c r="F136" s="7">
+        <v>4780000</v>
       </c>
       <c r="G136" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H136" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H136" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -5117,14 +5126,14 @@
       <c r="E137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F137" s="3">
-        <v>84.3</v>
+      <c r="F137" s="7">
+        <v>4780000</v>
       </c>
       <c r="G137" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H137" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H137" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -5146,17 +5155,17 @@
       <c r="E138" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F138" s="3">
-        <v>168.6</v>
+      <c r="F138" s="7">
+        <v>5710000</v>
       </c>
       <c r="G138" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H138" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H138" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I138" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5175,17 +5184,17 @@
       <c r="E139" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F139" s="3">
-        <v>168.6</v>
+      <c r="F139" s="7">
+        <v>5710000</v>
       </c>
       <c r="G139" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H139" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H139" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I139" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5204,17 +5213,17 @@
       <c r="E140" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F140" s="3">
-        <v>168.6</v>
+      <c r="F140" s="7">
+        <v>5710000</v>
       </c>
       <c r="G140" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H140" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H140" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I140" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5233,17 +5242,17 @@
       <c r="E141" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="3">
-        <v>168.6</v>
+      <c r="F141" s="7">
+        <v>5710000</v>
       </c>
       <c r="G141" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H141" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I141" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5262,17 +5271,17 @@
       <c r="E142" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F142" s="3">
-        <v>84.3</v>
+      <c r="F142" s="7">
+        <v>4780000</v>
       </c>
       <c r="G142" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H142" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I142" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5291,14 +5300,14 @@
       <c r="E143" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F143" s="3">
-        <v>84.3</v>
+      <c r="F143" s="7">
+        <v>4780000</v>
       </c>
       <c r="G143" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H143" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H143" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -5320,17 +5329,17 @@
       <c r="E144" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F144" s="3">
-        <v>84.3</v>
+      <c r="F144" s="7">
+        <v>4780000</v>
       </c>
       <c r="G144" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H144" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I144" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5349,17 +5358,17 @@
       <c r="E145" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F145" s="3">
-        <v>84.3</v>
+      <c r="F145" s="7">
+        <v>4780000</v>
       </c>
       <c r="G145" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H145" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H145" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I145" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5378,17 +5387,17 @@
       <c r="E146" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F146" s="3">
-        <v>84.3</v>
+      <c r="F146" s="7">
+        <v>4780000</v>
       </c>
       <c r="G146" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H146" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H146" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I146" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5407,17 +5416,17 @@
       <c r="E147" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="3">
-        <v>84.3</v>
+      <c r="F147" s="7">
+        <v>4780000</v>
       </c>
       <c r="G147" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H147" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H147" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I147" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5436,17 +5445,17 @@
       <c r="E148" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F148" s="3">
-        <v>84.3</v>
+      <c r="F148" s="7">
+        <v>4780000</v>
       </c>
       <c r="G148" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H148" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H148" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I148" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5465,14 +5474,14 @@
       <c r="E149" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F149" s="3">
-        <v>84.3</v>
+      <c r="F149" s="7">
+        <v>4780000</v>
       </c>
       <c r="G149" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H149" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H149" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -5494,17 +5503,17 @@
       <c r="E150" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F150" s="3">
-        <v>134.38999999999999</v>
+      <c r="F150" s="7">
+        <v>5190000</v>
       </c>
       <c r="G150" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H150" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I150" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5523,17 +5532,17 @@
       <c r="E151" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F151" s="3">
-        <v>134.38999999999999</v>
+      <c r="F151" s="7">
+        <v>5190000</v>
       </c>
       <c r="G151" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H151" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I151" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5552,17 +5561,17 @@
       <c r="E152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F152" s="3">
-        <v>134.38999999999999</v>
+      <c r="F152" s="7">
+        <v>5190000</v>
       </c>
       <c r="G152" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H152" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I152" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5581,17 +5590,17 @@
       <c r="E153" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F153" s="3">
-        <v>134.38999999999999</v>
+      <c r="F153" s="7">
+        <v>5190000</v>
       </c>
       <c r="G153" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H153" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I153" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5610,17 +5619,17 @@
       <c r="E154" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F154" s="3">
-        <v>134.38999999999999</v>
+      <c r="F154" s="7">
+        <v>5190000</v>
       </c>
       <c r="G154" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H154" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H154" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I154" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5639,17 +5648,17 @@
       <c r="E155" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F155" s="3">
-        <v>134.38999999999999</v>
+      <c r="F155" s="7">
+        <v>5190000</v>
       </c>
       <c r="G155" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H155" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H155" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I155" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5668,17 +5677,17 @@
       <c r="E156" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F156" s="3">
-        <v>134.38999999999999</v>
+      <c r="F156" s="7">
+        <v>5190000</v>
       </c>
       <c r="G156" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H156" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I156" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5697,17 +5706,17 @@
       <c r="E157" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F157" s="3">
-        <v>134.38999999999999</v>
+      <c r="F157" s="7">
+        <v>5190000</v>
       </c>
       <c r="G157" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H157" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H157" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I157" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5726,17 +5735,17 @@
       <c r="E158" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F158" s="3">
-        <v>134.38999999999999</v>
+      <c r="F158" s="7">
+        <v>5190000</v>
       </c>
       <c r="G158" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H158" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I158" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5755,17 +5764,17 @@
       <c r="E159" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F159" s="3">
-        <v>134.38999999999999</v>
+      <c r="F159" s="7">
+        <v>5190000</v>
       </c>
       <c r="G159" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H159" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H159" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I159" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5784,17 +5793,17 @@
       <c r="E160" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F160" s="3">
-        <v>134.38999999999999</v>
+      <c r="F160" s="7">
+        <v>5190000</v>
       </c>
       <c r="G160" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H160" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H160" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I160" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5813,17 +5822,17 @@
       <c r="E161" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F161" s="3">
-        <v>134.38999999999999</v>
+      <c r="F161" s="7">
+        <v>5190000</v>
       </c>
       <c r="G161" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H161" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I161" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5842,17 +5851,17 @@
       <c r="E162" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F162" s="3">
-        <v>134.38999999999999</v>
+      <c r="F162" s="7">
+        <v>5190000</v>
       </c>
       <c r="G162" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H162" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H162" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I162" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5871,17 +5880,17 @@
       <c r="E163" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F163" s="3">
-        <v>134.38999999999999</v>
+      <c r="F163" s="7">
+        <v>5190000</v>
       </c>
       <c r="G163" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H163" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H163" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I163" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5900,17 +5909,17 @@
       <c r="E164" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F164" s="3">
-        <v>134.38999999999999</v>
+      <c r="F164" s="7">
+        <v>5190000</v>
       </c>
       <c r="G164" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H164" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H164" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I164" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5929,17 +5938,17 @@
       <c r="E165" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F165" s="3">
-        <v>134.38999999999999</v>
+      <c r="F165" s="7">
+        <v>5190000</v>
       </c>
       <c r="G165" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H165" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H165" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I165" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5958,17 +5967,17 @@
       <c r="E166" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F166" s="3">
-        <v>134.38999999999999</v>
+      <c r="F166" s="7">
+        <v>5190000</v>
       </c>
       <c r="G166" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H166" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I166" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -5987,17 +5996,17 @@
       <c r="E167" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F167" s="3">
-        <v>134.38999999999999</v>
+      <c r="F167" s="7">
+        <v>5190000</v>
       </c>
       <c r="G167" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H167" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I167" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6016,17 +6025,17 @@
       <c r="E168" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F168" s="3">
-        <v>134.38999999999999</v>
+      <c r="F168" s="7">
+        <v>5190000</v>
       </c>
       <c r="G168" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H168" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I168" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6045,17 +6054,17 @@
       <c r="E169" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F169" s="3">
-        <v>134.38999999999999</v>
+      <c r="F169" s="7">
+        <v>5190000</v>
       </c>
       <c r="G169" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H169" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I169" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6074,17 +6083,17 @@
       <c r="E170" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F170" s="3">
-        <v>134.38999999999999</v>
+      <c r="F170" s="7">
+        <v>5190000</v>
       </c>
       <c r="G170" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H170" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H170" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I170" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6103,17 +6112,17 @@
       <c r="E171" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F171" s="3">
-        <v>134.38999999999999</v>
+      <c r="F171" s="7">
+        <v>5190000</v>
       </c>
       <c r="G171" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H171" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I171" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6132,17 +6141,17 @@
       <c r="E172" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F172" s="3">
-        <v>134.38999999999999</v>
+      <c r="F172" s="7">
+        <v>5190000</v>
       </c>
       <c r="G172" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H172" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H172" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I172" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6161,17 +6170,17 @@
       <c r="E173" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F173" s="3">
-        <v>134.38999999999999</v>
+      <c r="F173" s="7">
+        <v>5190000</v>
       </c>
       <c r="G173" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H173" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I173" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6190,17 +6199,17 @@
       <c r="E174" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F174" s="3">
-        <v>134.38999999999999</v>
+      <c r="F174" s="7">
+        <v>5190000</v>
       </c>
       <c r="G174" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H174" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I174" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6219,17 +6228,17 @@
       <c r="E175" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F175" s="3">
-        <v>134.38999999999999</v>
+      <c r="F175" s="7">
+        <v>5190000</v>
       </c>
       <c r="G175" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H175" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H175" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I175" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6248,17 +6257,17 @@
       <c r="E176" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F176" s="3">
-        <v>134.38999999999999</v>
+      <c r="F176" s="7">
+        <v>5190000</v>
       </c>
       <c r="G176" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H176" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I176" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6277,17 +6286,17 @@
       <c r="E177" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F177" s="3">
-        <v>134.38999999999999</v>
+      <c r="F177" s="7">
+        <v>5190000</v>
       </c>
       <c r="G177" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H177" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I177" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6306,17 +6315,17 @@
       <c r="E178" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F178" s="3">
-        <v>134.38999999999999</v>
+      <c r="F178" s="7">
+        <v>5190000</v>
       </c>
       <c r="G178" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H178" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I178" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6335,17 +6344,17 @@
       <c r="E179" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="3">
-        <v>134.38999999999999</v>
+      <c r="F179" s="7">
+        <v>5190000</v>
       </c>
       <c r="G179" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H179" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I179" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6364,17 +6373,17 @@
       <c r="E180" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F180" s="3">
-        <v>134.38999999999999</v>
+      <c r="F180" s="7">
+        <v>5190000</v>
       </c>
       <c r="G180" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H180" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I180" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6393,17 +6402,17 @@
       <c r="E181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F181" s="3">
-        <v>134.38999999999999</v>
+      <c r="F181" s="7">
+        <v>5190000</v>
       </c>
       <c r="G181" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H181" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H181" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I181" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6422,17 +6431,17 @@
       <c r="E182" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F182" s="3">
-        <v>134.38999999999999</v>
+      <c r="F182" s="7">
+        <v>5190000</v>
       </c>
       <c r="G182" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H182" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H182" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I182" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6451,17 +6460,17 @@
       <c r="E183" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F183" s="3">
-        <v>134.38999999999999</v>
+      <c r="F183" s="7">
+        <v>5190000</v>
       </c>
       <c r="G183" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H183" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H183" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I183" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6480,17 +6489,17 @@
       <c r="E184" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F184" s="3">
-        <v>134.38999999999999</v>
+      <c r="F184" s="7">
+        <v>5190000</v>
       </c>
       <c r="G184" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H184" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H184" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I184" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6509,17 +6518,17 @@
       <c r="E185" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F185" s="3">
-        <v>134.38999999999999</v>
+      <c r="F185" s="7">
+        <v>5190000</v>
       </c>
       <c r="G185" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H185" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H185" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I185" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6538,17 +6547,17 @@
       <c r="E186" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F186" s="3">
-        <v>134.38999999999999</v>
+      <c r="F186" s="7">
+        <v>5190000</v>
       </c>
       <c r="G186" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H186" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H186" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I186" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6567,17 +6576,17 @@
       <c r="E187" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F187" s="3">
-        <v>134.38999999999999</v>
+      <c r="F187" s="7">
+        <v>5190000</v>
       </c>
       <c r="G187" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H187" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H187" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I187" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6596,17 +6605,17 @@
       <c r="E188" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F188" s="3">
-        <v>134.38999999999999</v>
+      <c r="F188" s="7">
+        <v>5190000</v>
       </c>
       <c r="G188" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H188" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H188" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I188" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6625,17 +6634,17 @@
       <c r="E189" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F189" s="3">
-        <v>134.38999999999999</v>
+      <c r="F189" s="7">
+        <v>5190000</v>
       </c>
       <c r="G189" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H189" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H189" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I189" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6654,17 +6663,17 @@
       <c r="E190" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F190" s="3">
-        <v>134.38999999999999</v>
+      <c r="F190" s="7">
+        <v>5190000</v>
       </c>
       <c r="G190" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H190" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I190" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6683,17 +6692,17 @@
       <c r="E191" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F191" s="3">
-        <v>134.38999999999999</v>
+      <c r="F191" s="7">
+        <v>5190000</v>
       </c>
       <c r="G191" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H191" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I191" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6712,17 +6721,17 @@
       <c r="E192" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="3">
-        <v>134.38999999999999</v>
+      <c r="F192" s="7">
+        <v>5190000</v>
       </c>
       <c r="G192" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H192" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I192" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6741,17 +6750,17 @@
       <c r="E193" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F193" s="3">
-        <v>134.38999999999999</v>
+      <c r="F193" s="7">
+        <v>5190000</v>
       </c>
       <c r="G193" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H193" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H193" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I193" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6770,17 +6779,17 @@
       <c r="E194" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F194" s="3">
-        <v>134.38999999999999</v>
+      <c r="F194" s="7">
+        <v>5190000</v>
       </c>
       <c r="G194" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H194" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H194" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I194" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6799,17 +6808,17 @@
       <c r="E195" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F195" s="3">
-        <v>134.38999999999999</v>
+      <c r="F195" s="7">
+        <v>5190000</v>
       </c>
       <c r="G195" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H195" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H195" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I195" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6828,17 +6837,17 @@
       <c r="E196" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F196" s="3">
-        <v>134.38999999999999</v>
+      <c r="F196" s="7">
+        <v>5190000</v>
       </c>
       <c r="G196" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H196" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H196" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I196" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6857,17 +6866,17 @@
       <c r="E197" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F197" s="3">
-        <v>134.38999999999999</v>
+      <c r="F197" s="7">
+        <v>5190000</v>
       </c>
       <c r="G197" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H197" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H197" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I197" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6886,17 +6895,17 @@
       <c r="E198" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F198" s="3">
-        <v>134.38999999999999</v>
+      <c r="F198" s="7">
+        <v>5190000</v>
       </c>
       <c r="G198" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H198" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H198" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I198" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6915,17 +6924,17 @@
       <c r="E199" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F199" s="3">
-        <v>134.38999999999999</v>
+      <c r="F199" s="7">
+        <v>5190000</v>
       </c>
       <c r="G199" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H199" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H199" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I199" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6944,17 +6953,17 @@
       <c r="E200" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F200" s="3">
-        <v>134.38999999999999</v>
+      <c r="F200" s="7">
+        <v>5190000</v>
       </c>
       <c r="G200" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H200" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H200" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I200" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -6973,17 +6982,17 @@
       <c r="E201" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F201" s="3">
-        <v>134.38999999999999</v>
+      <c r="F201" s="7">
+        <v>5190000</v>
       </c>
       <c r="G201" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H201" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I201" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7002,17 +7011,17 @@
       <c r="E202" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F202" s="3">
-        <v>134.38999999999999</v>
+      <c r="F202" s="7">
+        <v>5190000</v>
       </c>
       <c r="G202" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H202" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I202" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7031,17 +7040,17 @@
       <c r="E203" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F203" s="3">
-        <v>134.38999999999999</v>
+      <c r="F203" s="7">
+        <v>5190000</v>
       </c>
       <c r="G203" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H203" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I203" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7060,17 +7069,17 @@
       <c r="E204" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F204" s="3">
-        <v>134.38999999999999</v>
+      <c r="F204" s="7">
+        <v>5190000</v>
       </c>
       <c r="G204" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H204" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H204" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I204" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7089,17 +7098,17 @@
       <c r="E205" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F205" s="3">
-        <v>134.38999999999999</v>
+      <c r="F205" s="7">
+        <v>5190000</v>
       </c>
       <c r="G205" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H205" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I205" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7118,17 +7127,17 @@
       <c r="E206" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F206" s="3">
-        <v>134.38999999999999</v>
+      <c r="F206" s="7">
+        <v>5190000</v>
       </c>
       <c r="G206" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H206" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I206" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7147,17 +7156,17 @@
       <c r="E207" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F207" s="3">
-        <v>134.38999999999999</v>
+      <c r="F207" s="7">
+        <v>5190000</v>
       </c>
       <c r="G207" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H207" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H207" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I207" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7176,17 +7185,17 @@
       <c r="E208" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F208" s="3">
-        <v>134.38999999999999</v>
+      <c r="F208" s="7">
+        <v>5190000</v>
       </c>
       <c r="G208" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H208" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H208" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I208" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7205,17 +7214,17 @@
       <c r="E209" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F209" s="3">
-        <v>134.38999999999999</v>
+      <c r="F209" s="7">
+        <v>5190000</v>
       </c>
       <c r="G209" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H209" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H209" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I209" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7234,17 +7243,17 @@
       <c r="E210" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F210" s="3">
-        <v>134.38999999999999</v>
+      <c r="F210" s="7">
+        <v>5190000</v>
       </c>
       <c r="G210" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H210" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H210" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I210" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7263,17 +7272,17 @@
       <c r="E211" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F211" s="3">
-        <v>134.38999999999999</v>
+      <c r="F211" s="7">
+        <v>5190000</v>
       </c>
       <c r="G211" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H211" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H211" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I211" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7292,17 +7301,17 @@
       <c r="E212" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F212" s="3">
-        <v>134.38999999999999</v>
+      <c r="F212" s="7">
+        <v>5190000</v>
       </c>
       <c r="G212" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H212" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I212" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -7321,20 +7330,21 @@
       <c r="E213" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F213" s="3">
-        <v>134.38999999999999</v>
+      <c r="F213" s="7">
+        <v>5190000</v>
       </c>
       <c r="G213" s="7">
-        <v>550000</v>
-      </c>
-      <c r="H213" s="7">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="I213" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I213" xr:uid="{269E91C4-51D8-48A4-9F85-B3DD1B844720}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/site-db.xlsx
+++ b/site-db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0b3ffe3a7cf0e2e/Shahrak/Site/www/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{B2725675-FFA3-4D8E-BC95-C0A8337A908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C19C912D-2B8C-447A-93BE-1930F0291305}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{B2725675-FFA3-4D8E-BC95-C0A8337A908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{109B31C4-7B30-4EE1-B154-397715046191}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C0AB2AFE-4AC8-4A5E-9EF3-96A7BC549DBC}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="229">
   <si>
     <t>password</t>
   </si>
@@ -704,19 +704,28 @@
     <t>تعداد خودرو مجاز به ورود به مجتمع</t>
   </si>
   <si>
-    <t>وضعیت پارکینگ</t>
-  </si>
-  <si>
-    <t>بدهی شما تا پایان  مرداد ماه 1404 (ریال)</t>
-  </si>
-  <si>
-    <t>مبلغ شارژ ( ریال)</t>
-  </si>
-  <si>
     <t>دارد</t>
   </si>
   <si>
     <t>ندارد</t>
+  </si>
+  <si>
+    <t>پارکینگ سندی</t>
+  </si>
+  <si>
+    <t>مبلغ شارژ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4,780,000 ریال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ریال 5,190,000</t>
+  </si>
+  <si>
+    <t>5,710,000 ریال</t>
+  </si>
+  <si>
+    <t>بدهی تا پایان  مرداد ماه 1404</t>
   </si>
 </sst>
 </file>
@@ -795,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,6 +822,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1150,7 +1160,7 @@
   <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" x14ac:dyDescent="0.25"/>
@@ -1183,13 +1193,13 @@
         <v>219</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>220</v>
@@ -1211,14 +1221,14 @@
       <c r="E2" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="7">
-        <v>4780000</v>
+      <c r="F2" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I2" s="6">
         <v>2</v>
@@ -1240,14 +1250,14 @@
       <c r="E3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="7">
-        <v>4780000</v>
+      <c r="F3" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I3" s="6">
         <v>1</v>
@@ -1269,14 +1279,14 @@
       <c r="E4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F4" s="7">
-        <v>4780000</v>
+      <c r="F4" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I4" s="6">
         <v>2</v>
@@ -1298,14 +1308,14 @@
       <c r="E5" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F5" s="7">
-        <v>4780000</v>
+      <c r="F5" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I5" s="6">
         <v>2</v>
@@ -1327,14 +1337,14 @@
       <c r="E6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F6" s="7">
-        <v>4780000</v>
+      <c r="F6" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I6" s="6">
         <v>2</v>
@@ -1356,14 +1366,14 @@
       <c r="E7" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F7" s="7">
-        <v>4780000</v>
+      <c r="F7" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I7" s="6">
         <v>2</v>
@@ -1385,14 +1395,14 @@
       <c r="E8" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="7">
-        <v>4780000</v>
+      <c r="F8" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -1414,14 +1424,14 @@
       <c r="E9" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F9" s="7">
-        <v>4780000</v>
+      <c r="F9" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
@@ -1443,14 +1453,14 @@
       <c r="E10" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F10" s="7">
-        <v>4780000</v>
+      <c r="F10" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
@@ -1472,14 +1482,14 @@
       <c r="E11" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F11" s="7">
-        <v>4780000</v>
+      <c r="F11" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I11" s="6">
         <v>2</v>
@@ -1501,14 +1511,14 @@
       <c r="E12" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F12" s="7">
-        <v>4780000</v>
+      <c r="F12" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
@@ -1530,14 +1540,14 @@
       <c r="E13" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F13" s="7">
-        <v>4780000</v>
+      <c r="F13" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I13" s="6">
         <v>2</v>
@@ -1559,14 +1569,14 @@
       <c r="E14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F14" s="7">
-        <v>4780000</v>
+      <c r="F14" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -1588,14 +1598,14 @@
       <c r="E15" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="7">
-        <v>4780000</v>
+      <c r="F15" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
@@ -1617,14 +1627,14 @@
       <c r="E16" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="7">
-        <v>4780000</v>
+      <c r="F16" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
@@ -1646,14 +1656,14 @@
       <c r="E17" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F17" s="7">
-        <v>4780000</v>
+      <c r="F17" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G17" s="7">
         <v>0</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I17" s="6">
         <v>2</v>
@@ -1675,14 +1685,14 @@
       <c r="E18" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F18" s="7">
-        <v>4780000</v>
+      <c r="F18" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I18" s="6">
         <v>2</v>
@@ -1704,14 +1714,14 @@
       <c r="E19" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="7">
-        <v>4780000</v>
+      <c r="F19" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G19" s="7">
         <v>0</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I19" s="6">
         <v>1</v>
@@ -1733,14 +1743,14 @@
       <c r="E20" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F20" s="7">
-        <v>4780000</v>
+      <c r="F20" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I20" s="6">
         <v>2</v>
@@ -1762,14 +1772,14 @@
       <c r="E21" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="7">
-        <v>4780000</v>
+      <c r="F21" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -1791,14 +1801,14 @@
       <c r="E22" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="7">
-        <v>4780000</v>
+      <c r="F22" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G22" s="7">
         <v>0</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I22" s="6">
         <v>2</v>
@@ -1820,14 +1830,14 @@
       <c r="E23" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F23" s="7">
-        <v>4780000</v>
+      <c r="F23" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G23" s="7">
         <v>0</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I23" s="6">
         <v>1</v>
@@ -1849,14 +1859,14 @@
       <c r="E24" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F24" s="7">
-        <v>4780000</v>
+      <c r="F24" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G24" s="7">
         <v>0</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I24" s="6">
         <v>1</v>
@@ -1878,14 +1888,14 @@
       <c r="E25" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="7">
-        <v>4780000</v>
+      <c r="F25" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I25" s="6">
         <v>2</v>
@@ -1907,14 +1917,14 @@
       <c r="E26" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="7">
-        <v>4780000</v>
+      <c r="F26" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G26" s="7">
         <v>0</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I26" s="6">
         <v>2</v>
@@ -1936,14 +1946,14 @@
       <c r="E27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F27" s="7">
-        <v>4780000</v>
+      <c r="F27" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G27" s="7">
         <v>0</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I27" s="6">
         <v>2</v>
@@ -1965,14 +1975,14 @@
       <c r="E28" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="7">
-        <v>4780000</v>
+      <c r="F28" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G28" s="7">
         <v>0</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I28" s="6">
         <v>2</v>
@@ -1994,14 +2004,14 @@
       <c r="E29" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="7">
-        <v>4780000</v>
+      <c r="F29" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G29" s="7">
         <v>0</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I29" s="6">
         <v>2</v>
@@ -2023,14 +2033,14 @@
       <c r="E30" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F30" s="7">
-        <v>4780000</v>
+      <c r="F30" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I30" s="6">
         <v>2</v>
@@ -2052,14 +2062,14 @@
       <c r="E31" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F31" s="7">
-        <v>4780000</v>
+      <c r="F31" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G31" s="7">
         <v>0</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I31" s="6">
         <v>2</v>
@@ -2081,14 +2091,14 @@
       <c r="E32" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F32" s="7">
-        <v>4780000</v>
+      <c r="F32" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G32" s="7">
         <v>0</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I32" s="6">
         <v>2</v>
@@ -2110,14 +2120,14 @@
       <c r="E33" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F33" s="7">
-        <v>4780000</v>
+      <c r="F33" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G33" s="7">
         <v>0</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I33" s="6">
         <v>2</v>
@@ -2139,14 +2149,14 @@
       <c r="E34" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F34" s="7">
-        <v>4780000</v>
+      <c r="F34" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G34" s="7">
         <v>0</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I34" s="6">
         <v>1</v>
@@ -2168,14 +2178,14 @@
       <c r="E35" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="7">
-        <v>4780000</v>
+      <c r="F35" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G35" s="7">
         <v>0</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I35" s="6">
         <v>1</v>
@@ -2197,14 +2207,14 @@
       <c r="E36" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F36" s="7">
-        <v>4780000</v>
+      <c r="F36" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G36" s="7">
         <v>0</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I36" s="6">
         <v>2</v>
@@ -2226,14 +2236,14 @@
       <c r="E37" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F37" s="7">
-        <v>4780000</v>
+      <c r="F37" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G37" s="7">
         <v>0</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I37" s="6">
         <v>2</v>
@@ -2255,14 +2265,14 @@
       <c r="E38" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F38" s="7">
-        <v>4780000</v>
+      <c r="F38" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G38" s="7">
         <v>0</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I38" s="6">
         <v>1</v>
@@ -2284,14 +2294,14 @@
       <c r="E39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="7">
-        <v>4780000</v>
+      <c r="F39" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G39" s="7">
         <v>0</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I39" s="6">
         <v>2</v>
@@ -2313,14 +2323,14 @@
       <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F40" s="7">
-        <v>4780000</v>
+      <c r="F40" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G40" s="7">
         <v>0</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I40" s="6">
         <v>2</v>
@@ -2342,14 +2352,14 @@
       <c r="E41" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F41" s="7">
-        <v>4780000</v>
+      <c r="F41" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G41" s="7">
         <v>0</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I41" s="6">
         <v>1</v>
@@ -2371,14 +2381,14 @@
       <c r="E42" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="7">
-        <v>4780000</v>
+      <c r="F42" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G42" s="7">
         <v>0</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I42" s="6">
         <v>2</v>
@@ -2400,14 +2410,14 @@
       <c r="E43" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F43" s="7">
-        <v>4780000</v>
+      <c r="F43" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G43" s="7">
         <v>0</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I43" s="6">
         <v>2</v>
@@ -2429,14 +2439,14 @@
       <c r="E44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="7">
-        <v>4780000</v>
+      <c r="F44" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G44" s="7">
         <v>0</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I44" s="6">
         <v>2</v>
@@ -2458,14 +2468,14 @@
       <c r="E45" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F45" s="7">
-        <v>4780000</v>
+      <c r="F45" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G45" s="7">
         <v>0</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I45" s="6">
         <v>2</v>
@@ -2487,14 +2497,14 @@
       <c r="E46" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F46" s="7">
-        <v>4780000</v>
+      <c r="F46" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G46" s="7">
         <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I46" s="6">
         <v>2</v>
@@ -2516,14 +2526,14 @@
       <c r="E47" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F47" s="7">
-        <v>4780000</v>
+      <c r="F47" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G47" s="7">
         <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I47" s="6">
         <v>2</v>
@@ -2545,14 +2555,14 @@
       <c r="E48" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F48" s="7">
-        <v>4780000</v>
+      <c r="F48" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G48" s="7">
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I48" s="6">
         <v>2</v>
@@ -2574,14 +2584,14 @@
       <c r="E49" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F49" s="7">
-        <v>4780000</v>
+      <c r="F49" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G49" s="7">
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I49" s="6">
         <v>2</v>
@@ -2603,14 +2613,14 @@
       <c r="E50" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F50" s="7">
-        <v>4780000</v>
+      <c r="F50" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G50" s="7">
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I50" s="6">
         <v>1</v>
@@ -2632,14 +2642,14 @@
       <c r="E51" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F51" s="7">
-        <v>4780000</v>
+      <c r="F51" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G51" s="7">
         <v>0</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I51" s="6">
         <v>1</v>
@@ -2661,14 +2671,14 @@
       <c r="E52" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F52" s="7">
-        <v>4780000</v>
+      <c r="F52" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G52" s="7">
         <v>0</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I52" s="6">
         <v>1</v>
@@ -2690,14 +2700,14 @@
       <c r="E53" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="7">
-        <v>4780000</v>
+      <c r="F53" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G53" s="7">
         <v>0</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I53" s="6">
         <v>2</v>
@@ -2719,14 +2729,14 @@
       <c r="E54" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F54" s="7">
-        <v>4780000</v>
+      <c r="F54" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G54" s="7">
         <v>0</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I54" s="6">
         <v>2</v>
@@ -2748,14 +2758,14 @@
       <c r="E55" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F55" s="7">
-        <v>4780000</v>
+      <c r="F55" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G55" s="7">
         <v>0</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I55" s="6">
         <v>1</v>
@@ -2777,14 +2787,14 @@
       <c r="E56" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F56" s="7">
-        <v>4780000</v>
+      <c r="F56" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G56" s="7">
         <v>0</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I56" s="6">
         <v>2</v>
@@ -2806,14 +2816,14 @@
       <c r="E57" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F57" s="7">
-        <v>4780000</v>
+      <c r="F57" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G57" s="7">
         <v>0</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I57" s="6">
         <v>1</v>
@@ -2835,14 +2845,14 @@
       <c r="E58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F58" s="7">
-        <v>4780000</v>
+      <c r="F58" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G58" s="7">
         <v>0</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I58" s="6">
         <v>2</v>
@@ -2864,14 +2874,14 @@
       <c r="E59" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F59" s="7">
-        <v>4780000</v>
+      <c r="F59" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G59" s="7">
         <v>0</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I59" s="6">
         <v>1</v>
@@ -2893,14 +2903,14 @@
       <c r="E60" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F60" s="7">
-        <v>4780000</v>
+      <c r="F60" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G60" s="7">
         <v>0</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I60" s="6">
         <v>2</v>
@@ -2922,14 +2932,14 @@
       <c r="E61" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F61" s="7">
-        <v>4780000</v>
+      <c r="F61" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G61" s="7">
         <v>0</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I61" s="6">
         <v>2</v>
@@ -2951,14 +2961,14 @@
       <c r="E62" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F62" s="7">
-        <v>4780000</v>
+      <c r="F62" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G62" s="7">
         <v>0</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I62" s="6">
         <v>2</v>
@@ -2980,14 +2990,14 @@
       <c r="E63" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F63" s="7">
-        <v>4780000</v>
+      <c r="F63" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G63" s="7">
         <v>0</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I63" s="6">
         <v>2</v>
@@ -3009,14 +3019,14 @@
       <c r="E64" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F64" s="7">
-        <v>4780000</v>
+      <c r="F64" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G64" s="7">
         <v>0</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I64" s="6">
         <v>2</v>
@@ -3038,14 +3048,14 @@
       <c r="E65" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F65" s="7">
-        <v>4780000</v>
+      <c r="F65" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G65" s="7">
         <v>0</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I65" s="6">
         <v>2</v>
@@ -3067,14 +3077,14 @@
       <c r="E66" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F66" s="7">
-        <v>4780000</v>
+      <c r="F66" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G66" s="7">
         <v>0</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I66" s="6">
         <v>1</v>
@@ -3096,14 +3106,14 @@
       <c r="E67" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F67" s="7">
-        <v>4780000</v>
+      <c r="F67" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G67" s="7">
         <v>0</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I67" s="6">
         <v>1</v>
@@ -3125,14 +3135,14 @@
       <c r="E68" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F68" s="7">
-        <v>4780000</v>
+      <c r="F68" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G68" s="7">
         <v>0</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I68" s="6">
         <v>2</v>
@@ -3154,14 +3164,14 @@
       <c r="E69" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F69" s="7">
-        <v>4780000</v>
+      <c r="F69" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G69" s="7">
         <v>0</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I69" s="6">
         <v>2</v>
@@ -3183,14 +3193,14 @@
       <c r="E70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F70" s="7">
-        <v>4780000</v>
+      <c r="F70" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G70" s="7">
         <v>0</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I70" s="6">
         <v>2</v>
@@ -3212,14 +3222,14 @@
       <c r="E71" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F71" s="7">
-        <v>4780000</v>
+      <c r="F71" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G71" s="7">
         <v>0</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I71" s="6">
         <v>2</v>
@@ -3241,14 +3251,14 @@
       <c r="E72" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F72" s="7">
-        <v>4780000</v>
+      <c r="F72" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G72" s="7">
         <v>0</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I72" s="6">
         <v>2</v>
@@ -3270,14 +3280,14 @@
       <c r="E73" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F73" s="7">
-        <v>4780000</v>
+      <c r="F73" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G73" s="7">
         <v>0</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I73" s="6">
         <v>1</v>
@@ -3299,14 +3309,14 @@
       <c r="E74" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F74" s="7">
-        <v>4780000</v>
+      <c r="F74" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G74" s="7">
         <v>0</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I74" s="6">
         <v>2</v>
@@ -3328,14 +3338,14 @@
       <c r="E75" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F75" s="7">
-        <v>4780000</v>
+      <c r="F75" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G75" s="7">
         <v>0</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I75" s="6">
         <v>1</v>
@@ -3357,14 +3367,14 @@
       <c r="E76" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F76" s="7">
-        <v>4780000</v>
+      <c r="F76" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G76" s="7">
         <v>0</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I76" s="6">
         <v>2</v>
@@ -3386,14 +3396,14 @@
       <c r="E77" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F77" s="7">
-        <v>4780000</v>
+      <c r="F77" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G77" s="7">
         <v>0</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I77" s="6">
         <v>2</v>
@@ -3415,14 +3425,14 @@
       <c r="E78" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F78" s="7">
-        <v>4780000</v>
+      <c r="F78" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G78" s="7">
         <v>0</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I78" s="6">
         <v>2</v>
@@ -3444,14 +3454,14 @@
       <c r="E79" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F79" s="7">
-        <v>4780000</v>
+      <c r="F79" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G79" s="7">
         <v>0</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I79" s="6">
         <v>2</v>
@@ -3473,14 +3483,14 @@
       <c r="E80" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F80" s="7">
-        <v>4780000</v>
+      <c r="F80" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G80" s="7">
         <v>0</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I80" s="6">
         <v>1</v>
@@ -3502,14 +3512,14 @@
       <c r="E81" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F81" s="7">
-        <v>4780000</v>
+      <c r="F81" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G81" s="7">
         <v>0</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I81" s="6">
         <v>2</v>
@@ -3531,14 +3541,14 @@
       <c r="E82" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="7">
-        <v>4780000</v>
+      <c r="F82" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G82" s="7">
         <v>0</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I82" s="6">
         <v>1</v>
@@ -3560,14 +3570,14 @@
       <c r="E83" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F83" s="7">
-        <v>4780000</v>
+      <c r="F83" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G83" s="7">
         <v>0</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I83" s="6">
         <v>2</v>
@@ -3589,14 +3599,14 @@
       <c r="E84" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F84" s="7">
-        <v>4780000</v>
+      <c r="F84" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G84" s="7">
         <v>0</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I84" s="6">
         <v>2</v>
@@ -3618,14 +3628,14 @@
       <c r="E85" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F85" s="7">
-        <v>4780000</v>
+      <c r="F85" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G85" s="7">
         <v>0</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I85" s="6">
         <v>2</v>
@@ -3647,14 +3657,14 @@
       <c r="E86" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F86" s="7">
-        <v>4780000</v>
+      <c r="F86" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G86" s="7">
         <v>0</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I86" s="6">
         <v>2</v>
@@ -3676,14 +3686,14 @@
       <c r="E87" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F87" s="7">
-        <v>4780000</v>
+      <c r="F87" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G87" s="7">
         <v>0</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I87" s="6">
         <v>1</v>
@@ -3705,14 +3715,14 @@
       <c r="E88" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F88" s="7">
-        <v>4780000</v>
+      <c r="F88" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G88" s="7">
         <v>0</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I88" s="6">
         <v>2</v>
@@ -3734,14 +3744,14 @@
       <c r="E89" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F89" s="7">
-        <v>4780000</v>
+      <c r="F89" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G89" s="7">
         <v>0</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I89" s="6">
         <v>2</v>
@@ -3763,14 +3773,14 @@
       <c r="E90" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F90" s="7">
-        <v>4780000</v>
+      <c r="F90" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G90" s="7">
         <v>0</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I90" s="6">
         <v>2</v>
@@ -3792,14 +3802,14 @@
       <c r="E91" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F91" s="7">
-        <v>4780000</v>
+      <c r="F91" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G91" s="7">
         <v>0</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I91" s="6">
         <v>2</v>
@@ -3821,14 +3831,14 @@
       <c r="E92" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F92" s="7">
-        <v>4780000</v>
+      <c r="F92" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G92" s="7">
         <v>0</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I92" s="6">
         <v>2</v>
@@ -3850,14 +3860,14 @@
       <c r="E93" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F93" s="7">
-        <v>4780000</v>
+      <c r="F93" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G93" s="7">
         <v>0</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I93" s="6">
         <v>2</v>
@@ -3879,14 +3889,14 @@
       <c r="E94" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F94" s="7">
-        <v>4780000</v>
+      <c r="F94" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G94" s="7">
         <v>0</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I94" s="6">
         <v>2</v>
@@ -3908,14 +3918,14 @@
       <c r="E95" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F95" s="7">
-        <v>4780000</v>
+      <c r="F95" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G95" s="7">
         <v>0</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I95" s="6">
         <v>2</v>
@@ -3937,14 +3947,14 @@
       <c r="E96" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F96" s="7">
-        <v>4780000</v>
+      <c r="F96" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G96" s="7">
         <v>0</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I96" s="6">
         <v>2</v>
@@ -3966,14 +3976,14 @@
       <c r="E97" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F97" s="7">
-        <v>4780000</v>
+      <c r="F97" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G97" s="7">
         <v>0</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I97" s="6">
         <v>2</v>
@@ -3995,14 +4005,14 @@
       <c r="E98" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F98" s="7">
-        <v>4780000</v>
+      <c r="F98" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G98" s="7">
         <v>0</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I98" s="6">
         <v>2</v>
@@ -4024,14 +4034,14 @@
       <c r="E99" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F99" s="7">
-        <v>4780000</v>
+      <c r="F99" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G99" s="7">
         <v>0</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I99" s="6">
         <v>1</v>
@@ -4053,14 +4063,14 @@
       <c r="E100" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F100" s="7">
-        <v>4780000</v>
+      <c r="F100" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G100" s="7">
         <v>0</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I100" s="6">
         <v>2</v>
@@ -4082,14 +4092,14 @@
       <c r="E101" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F101" s="7">
-        <v>4780000</v>
+      <c r="F101" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G101" s="7">
         <v>0</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I101" s="6">
         <v>1</v>
@@ -4111,14 +4121,14 @@
       <c r="E102" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F102" s="7">
-        <v>4780000</v>
+      <c r="F102" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G102" s="7">
         <v>0</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I102" s="6">
         <v>2</v>
@@ -4140,14 +4150,14 @@
       <c r="E103" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F103" s="7">
-        <v>4780000</v>
+      <c r="F103" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G103" s="7">
         <v>0</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I103" s="6">
         <v>2</v>
@@ -4169,14 +4179,14 @@
       <c r="E104" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F104" s="7">
-        <v>4780000</v>
+      <c r="F104" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G104" s="7">
         <v>0</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I104" s="6">
         <v>1</v>
@@ -4198,14 +4208,14 @@
       <c r="E105" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F105" s="7">
-        <v>4780000</v>
+      <c r="F105" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G105" s="7">
         <v>0</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I105" s="6">
         <v>1</v>
@@ -4227,14 +4237,14 @@
       <c r="E106" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F106" s="7">
-        <v>4780000</v>
+      <c r="F106" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G106" s="7">
         <v>0</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I106" s="6">
         <v>2</v>
@@ -4256,14 +4266,14 @@
       <c r="E107" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F107" s="7">
-        <v>4780000</v>
+      <c r="F107" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G107" s="7">
         <v>0</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I107" s="6">
         <v>2</v>
@@ -4285,14 +4295,14 @@
       <c r="E108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F108" s="7">
-        <v>4780000</v>
+      <c r="F108" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G108" s="7">
         <v>0</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I108" s="6">
         <v>2</v>
@@ -4314,14 +4324,14 @@
       <c r="E109" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F109" s="7">
-        <v>4780000</v>
+      <c r="F109" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G109" s="7">
         <v>0</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I109" s="6">
         <v>2</v>
@@ -4343,14 +4353,14 @@
       <c r="E110" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F110" s="7">
-        <v>4780000</v>
+      <c r="F110" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G110" s="7">
         <v>0</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I110" s="6">
         <v>2</v>
@@ -4372,14 +4382,14 @@
       <c r="E111" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F111" s="7">
-        <v>4780000</v>
+      <c r="F111" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G111" s="7">
         <v>0</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I111" s="6">
         <v>2</v>
@@ -4401,14 +4411,14 @@
       <c r="E112" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F112" s="7">
-        <v>4780000</v>
+      <c r="F112" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G112" s="7">
         <v>0</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I112" s="6">
         <v>2</v>
@@ -4430,14 +4440,14 @@
       <c r="E113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F113" s="7">
-        <v>4780000</v>
+      <c r="F113" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G113" s="7">
         <v>0</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I113" s="6">
         <v>2</v>
@@ -4459,14 +4469,14 @@
       <c r="E114" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F114" s="7">
-        <v>4780000</v>
+      <c r="F114" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G114" s="7">
         <v>0</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I114" s="6">
         <v>1</v>
@@ -4488,14 +4498,14 @@
       <c r="E115" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F115" s="7">
-        <v>4780000</v>
+      <c r="F115" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G115" s="7">
         <v>0</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I115" s="6">
         <v>1</v>
@@ -4517,14 +4527,14 @@
       <c r="E116" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F116" s="7">
-        <v>4780000</v>
+      <c r="F116" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G116" s="7">
         <v>0</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I116" s="6">
         <v>2</v>
@@ -4546,14 +4556,14 @@
       <c r="E117" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F117" s="7">
-        <v>4780000</v>
+      <c r="F117" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G117" s="7">
         <v>0</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I117" s="6">
         <v>2</v>
@@ -4575,14 +4585,14 @@
       <c r="E118" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F118" s="7">
-        <v>4780000</v>
+      <c r="F118" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G118" s="7">
         <v>0</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I118" s="6">
         <v>2</v>
@@ -4604,14 +4614,14 @@
       <c r="E119" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F119" s="7">
-        <v>4780000</v>
+      <c r="F119" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G119" s="7">
         <v>0</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I119" s="6">
         <v>2</v>
@@ -4633,14 +4643,14 @@
       <c r="E120" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F120" s="7">
-        <v>4780000</v>
+      <c r="F120" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G120" s="7">
         <v>0</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I120" s="6">
         <v>1</v>
@@ -4662,14 +4672,14 @@
       <c r="E121" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F121" s="7">
-        <v>4780000</v>
+      <c r="F121" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G121" s="7">
         <v>0</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I121" s="6">
         <v>1</v>
@@ -4691,14 +4701,14 @@
       <c r="E122" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F122" s="7">
-        <v>4780000</v>
+      <c r="F122" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G122" s="7">
         <v>0</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I122" s="6">
         <v>2</v>
@@ -4720,14 +4730,14 @@
       <c r="E123" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F123" s="7">
-        <v>4780000</v>
+      <c r="F123" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G123" s="7">
         <v>0</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I123" s="6">
         <v>1</v>
@@ -4749,14 +4759,14 @@
       <c r="E124" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F124" s="7">
-        <v>4780000</v>
+      <c r="F124" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G124" s="7">
         <v>0</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I124" s="6">
         <v>2</v>
@@ -4778,14 +4788,14 @@
       <c r="E125" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F125" s="7">
-        <v>4780000</v>
+      <c r="F125" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G125" s="7">
         <v>0</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I125" s="6">
         <v>1</v>
@@ -4807,14 +4817,14 @@
       <c r="E126" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F126" s="7">
-        <v>4780000</v>
+      <c r="F126" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G126" s="7">
         <v>0</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I126" s="6">
         <v>2</v>
@@ -4836,14 +4846,14 @@
       <c r="E127" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F127" s="7">
-        <v>4780000</v>
+      <c r="F127" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G127" s="7">
         <v>0</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I127" s="6">
         <v>2</v>
@@ -4865,14 +4875,14 @@
       <c r="E128" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F128" s="7">
-        <v>4780000</v>
+      <c r="F128" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G128" s="7">
         <v>0</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I128" s="6">
         <v>2</v>
@@ -4894,14 +4904,14 @@
       <c r="E129" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F129" s="7">
-        <v>4780000</v>
+      <c r="F129" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I129" s="6">
         <v>2</v>
@@ -4923,14 +4933,14 @@
       <c r="E130" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F130" s="7">
-        <v>4780000</v>
+      <c r="F130" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G130" s="7">
         <v>0</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I130" s="6">
         <v>2</v>
@@ -4952,14 +4962,14 @@
       <c r="E131" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F131" s="7">
-        <v>4780000</v>
+      <c r="F131" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G131" s="7">
         <v>0</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I131" s="6">
         <v>2</v>
@@ -4981,14 +4991,14 @@
       <c r="E132" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F132" s="7">
-        <v>4780000</v>
+      <c r="F132" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G132" s="7">
         <v>0</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I132" s="6">
         <v>2</v>
@@ -5010,14 +5020,14 @@
       <c r="E133" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F133" s="7">
-        <v>4780000</v>
+      <c r="F133" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G133" s="7">
         <v>0</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I133" s="6">
         <v>2</v>
@@ -5039,14 +5049,14 @@
       <c r="E134" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F134" s="7">
-        <v>4780000</v>
+      <c r="F134" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G134" s="7">
         <v>0</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I134" s="6">
         <v>2</v>
@@ -5068,14 +5078,14 @@
       <c r="E135" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F135" s="7">
-        <v>4780000</v>
+      <c r="F135" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G135" s="7">
         <v>0</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I135" s="6">
         <v>2</v>
@@ -5097,14 +5107,14 @@
       <c r="E136" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F136" s="7">
-        <v>4780000</v>
+      <c r="F136" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G136" s="7">
         <v>0</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I136" s="6">
         <v>1</v>
@@ -5126,14 +5136,14 @@
       <c r="E137" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F137" s="7">
-        <v>4780000</v>
+      <c r="F137" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G137" s="7">
         <v>0</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I137" s="6">
         <v>1</v>
@@ -5155,14 +5165,14 @@
       <c r="E138" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F138" s="7">
-        <v>5710000</v>
+      <c r="F138" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G138" s="7">
         <v>0</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I138" s="6">
         <v>2</v>
@@ -5184,14 +5194,14 @@
       <c r="E139" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F139" s="7">
-        <v>5710000</v>
+      <c r="F139" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G139" s="7">
         <v>0</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I139" s="6">
         <v>2</v>
@@ -5213,14 +5223,14 @@
       <c r="E140" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F140" s="7">
-        <v>5710000</v>
+      <c r="F140" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G140" s="7">
         <v>0</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I140" s="6">
         <v>2</v>
@@ -5242,14 +5252,14 @@
       <c r="E141" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F141" s="7">
-        <v>5710000</v>
+      <c r="F141" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="G141" s="7">
         <v>0</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I141" s="6">
         <v>2</v>
@@ -5271,14 +5281,14 @@
       <c r="E142" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F142" s="7">
-        <v>4780000</v>
+      <c r="F142" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G142" s="7">
         <v>0</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I142" s="6">
         <v>2</v>
@@ -5300,14 +5310,14 @@
       <c r="E143" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F143" s="7">
-        <v>4780000</v>
+      <c r="F143" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G143" s="7">
         <v>0</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I143" s="6">
         <v>1</v>
@@ -5329,14 +5339,14 @@
       <c r="E144" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F144" s="7">
-        <v>4780000</v>
+      <c r="F144" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G144" s="7">
         <v>0</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I144" s="6">
         <v>2</v>
@@ -5358,14 +5368,14 @@
       <c r="E145" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F145" s="7">
-        <v>4780000</v>
+      <c r="F145" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G145" s="7">
         <v>0</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I145" s="6">
         <v>2</v>
@@ -5387,14 +5397,14 @@
       <c r="E146" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F146" s="7">
-        <v>4780000</v>
+      <c r="F146" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G146" s="7">
         <v>0</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I146" s="6">
         <v>2</v>
@@ -5416,14 +5426,14 @@
       <c r="E147" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F147" s="7">
-        <v>4780000</v>
+      <c r="F147" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G147" s="7">
         <v>0</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I147" s="6">
         <v>2</v>
@@ -5445,14 +5455,14 @@
       <c r="E148" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F148" s="7">
-        <v>4780000</v>
+      <c r="F148" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G148" s="7">
         <v>0</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I148" s="6">
         <v>2</v>
@@ -5474,14 +5484,14 @@
       <c r="E149" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F149" s="7">
-        <v>4780000</v>
+      <c r="F149" s="9" t="s">
+        <v>225</v>
       </c>
       <c r="G149" s="7">
         <v>0</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I149" s="6">
         <v>1</v>
@@ -5503,14 +5513,14 @@
       <c r="E150" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F150" s="7">
-        <v>5190000</v>
+      <c r="F150" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G150" s="7">
         <v>0</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I150" s="6">
         <v>2</v>
@@ -5532,14 +5542,14 @@
       <c r="E151" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F151" s="7">
-        <v>5190000</v>
+      <c r="F151" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G151" s="7">
         <v>0</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I151" s="6">
         <v>2</v>
@@ -5561,14 +5571,14 @@
       <c r="E152" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F152" s="7">
-        <v>5190000</v>
+      <c r="F152" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G152" s="7">
         <v>0</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I152" s="6">
         <v>2</v>
@@ -5590,14 +5600,14 @@
       <c r="E153" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F153" s="7">
-        <v>5190000</v>
+      <c r="F153" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G153" s="7">
         <v>0</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I153" s="6">
         <v>2</v>
@@ -5619,14 +5629,14 @@
       <c r="E154" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F154" s="7">
-        <v>5190000</v>
+      <c r="F154" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G154" s="7">
         <v>0</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I154" s="6">
         <v>2</v>
@@ -5648,14 +5658,14 @@
       <c r="E155" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F155" s="7">
-        <v>5190000</v>
+      <c r="F155" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G155" s="7">
         <v>0</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I155" s="6">
         <v>2</v>
@@ -5677,14 +5687,14 @@
       <c r="E156" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F156" s="7">
-        <v>5190000</v>
+      <c r="F156" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G156" s="7">
         <v>0</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I156" s="6">
         <v>2</v>
@@ -5706,14 +5716,14 @@
       <c r="E157" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F157" s="7">
-        <v>5190000</v>
+      <c r="F157" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G157" s="7">
         <v>0</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I157" s="6">
         <v>2</v>
@@ -5735,14 +5745,14 @@
       <c r="E158" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F158" s="7">
-        <v>5190000</v>
+      <c r="F158" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G158" s="7">
         <v>0</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I158" s="6">
         <v>2</v>
@@ -5764,14 +5774,14 @@
       <c r="E159" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F159" s="7">
-        <v>5190000</v>
+      <c r="F159" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G159" s="7">
         <v>0</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I159" s="6">
         <v>2</v>
@@ -5793,14 +5803,14 @@
       <c r="E160" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F160" s="7">
-        <v>5190000</v>
+      <c r="F160" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G160" s="7">
         <v>0</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I160" s="6">
         <v>2</v>
@@ -5822,14 +5832,14 @@
       <c r="E161" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F161" s="7">
-        <v>5190000</v>
+      <c r="F161" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G161" s="7">
         <v>0</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I161" s="6">
         <v>2</v>
@@ -5851,14 +5861,14 @@
       <c r="E162" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F162" s="7">
-        <v>5190000</v>
+      <c r="F162" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G162" s="7">
         <v>0</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I162" s="6">
         <v>2</v>
@@ -5880,14 +5890,14 @@
       <c r="E163" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F163" s="7">
-        <v>5190000</v>
+      <c r="F163" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G163" s="7">
         <v>0</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I163" s="6">
         <v>2</v>
@@ -5909,14 +5919,14 @@
       <c r="E164" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F164" s="7">
-        <v>5190000</v>
+      <c r="F164" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G164" s="7">
         <v>0</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I164" s="6">
         <v>2</v>
@@ -5938,14 +5948,14 @@
       <c r="E165" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F165" s="7">
-        <v>5190000</v>
+      <c r="F165" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G165" s="7">
         <v>0</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I165" s="6">
         <v>2</v>
@@ -5967,14 +5977,14 @@
       <c r="E166" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F166" s="7">
-        <v>5190000</v>
+      <c r="F166" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G166" s="7">
         <v>0</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I166" s="6">
         <v>2</v>
@@ -5996,14 +6006,14 @@
       <c r="E167" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F167" s="7">
-        <v>5190000</v>
+      <c r="F167" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G167" s="7">
         <v>0</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I167" s="6">
         <v>2</v>
@@ -6025,14 +6035,14 @@
       <c r="E168" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F168" s="7">
-        <v>5190000</v>
+      <c r="F168" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G168" s="7">
         <v>0</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I168" s="6">
         <v>2</v>
@@ -6054,14 +6064,14 @@
       <c r="E169" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F169" s="7">
-        <v>5190000</v>
+      <c r="F169" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G169" s="7">
         <v>0</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I169" s="6">
         <v>2</v>
@@ -6083,14 +6093,14 @@
       <c r="E170" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F170" s="7">
-        <v>5190000</v>
+      <c r="F170" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G170" s="7">
         <v>0</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I170" s="6">
         <v>2</v>
@@ -6112,14 +6122,14 @@
       <c r="E171" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F171" s="7">
-        <v>5190000</v>
+      <c r="F171" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G171" s="7">
         <v>0</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I171" s="6">
         <v>2</v>
@@ -6141,14 +6151,14 @@
       <c r="E172" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F172" s="7">
-        <v>5190000</v>
+      <c r="F172" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G172" s="7">
         <v>0</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I172" s="6">
         <v>2</v>
@@ -6170,14 +6180,14 @@
       <c r="E173" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F173" s="7">
-        <v>5190000</v>
+      <c r="F173" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G173" s="7">
         <v>0</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I173" s="6">
         <v>2</v>
@@ -6199,14 +6209,14 @@
       <c r="E174" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F174" s="7">
-        <v>5190000</v>
+      <c r="F174" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G174" s="7">
         <v>0</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I174" s="6">
         <v>2</v>
@@ -6228,14 +6238,14 @@
       <c r="E175" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F175" s="7">
-        <v>5190000</v>
+      <c r="F175" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G175" s="7">
         <v>0</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I175" s="6">
         <v>2</v>
@@ -6257,14 +6267,14 @@
       <c r="E176" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F176" s="7">
-        <v>5190000</v>
+      <c r="F176" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G176" s="7">
         <v>0</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I176" s="6">
         <v>2</v>
@@ -6286,14 +6296,14 @@
       <c r="E177" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F177" s="7">
-        <v>5190000</v>
+      <c r="F177" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G177" s="7">
         <v>0</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I177" s="6">
         <v>2</v>
@@ -6315,14 +6325,14 @@
       <c r="E178" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F178" s="7">
-        <v>5190000</v>
+      <c r="F178" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G178" s="7">
         <v>0</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I178" s="6">
         <v>2</v>
@@ -6344,14 +6354,14 @@
       <c r="E179" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F179" s="7">
-        <v>5190000</v>
+      <c r="F179" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G179" s="7">
         <v>0</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I179" s="6">
         <v>2</v>
@@ -6373,14 +6383,14 @@
       <c r="E180" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F180" s="7">
-        <v>5190000</v>
+      <c r="F180" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G180" s="7">
         <v>0</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I180" s="6">
         <v>2</v>
@@ -6402,14 +6412,14 @@
       <c r="E181" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F181" s="7">
-        <v>5190000</v>
+      <c r="F181" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G181" s="7">
         <v>0</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I181" s="6">
         <v>2</v>
@@ -6431,14 +6441,14 @@
       <c r="E182" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F182" s="7">
-        <v>5190000</v>
+      <c r="F182" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G182" s="7">
         <v>0</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I182" s="6">
         <v>2</v>
@@ -6460,14 +6470,14 @@
       <c r="E183" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F183" s="7">
-        <v>5190000</v>
+      <c r="F183" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G183" s="7">
         <v>0</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I183" s="6">
         <v>2</v>
@@ -6489,14 +6499,14 @@
       <c r="E184" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F184" s="7">
-        <v>5190000</v>
+      <c r="F184" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G184" s="7">
         <v>0</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I184" s="6">
         <v>2</v>
@@ -6518,14 +6528,14 @@
       <c r="E185" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F185" s="7">
-        <v>5190000</v>
+      <c r="F185" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G185" s="7">
         <v>0</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I185" s="6">
         <v>2</v>
@@ -6547,14 +6557,14 @@
       <c r="E186" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F186" s="7">
-        <v>5190000</v>
+      <c r="F186" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G186" s="7">
         <v>0</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I186" s="6">
         <v>2</v>
@@ -6576,14 +6586,14 @@
       <c r="E187" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F187" s="7">
-        <v>5190000</v>
+      <c r="F187" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G187" s="7">
         <v>0</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I187" s="6">
         <v>2</v>
@@ -6605,14 +6615,14 @@
       <c r="E188" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F188" s="7">
-        <v>5190000</v>
+      <c r="F188" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G188" s="7">
         <v>0</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I188" s="6">
         <v>2</v>
@@ -6634,14 +6644,14 @@
       <c r="E189" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F189" s="7">
-        <v>5190000</v>
+      <c r="F189" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G189" s="7">
         <v>0</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I189" s="6">
         <v>2</v>
@@ -6663,14 +6673,14 @@
       <c r="E190" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F190" s="7">
-        <v>5190000</v>
+      <c r="F190" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G190" s="7">
         <v>0</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I190" s="6">
         <v>2</v>
@@ -6692,14 +6702,14 @@
       <c r="E191" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F191" s="7">
-        <v>5190000</v>
+      <c r="F191" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G191" s="7">
         <v>0</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I191" s="6">
         <v>2</v>
@@ -6721,14 +6731,14 @@
       <c r="E192" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F192" s="7">
-        <v>5190000</v>
+      <c r="F192" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G192" s="7">
         <v>0</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I192" s="6">
         <v>2</v>
@@ -6750,14 +6760,14 @@
       <c r="E193" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F193" s="7">
-        <v>5190000</v>
+      <c r="F193" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G193" s="7">
         <v>0</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I193" s="6">
         <v>2</v>
@@ -6779,14 +6789,14 @@
       <c r="E194" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F194" s="7">
-        <v>5190000</v>
+      <c r="F194" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G194" s="7">
         <v>0</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I194" s="6">
         <v>2</v>
@@ -6808,14 +6818,14 @@
       <c r="E195" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F195" s="7">
-        <v>5190000</v>
+      <c r="F195" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G195" s="7">
         <v>0</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I195" s="6">
         <v>2</v>
@@ -6837,14 +6847,14 @@
       <c r="E196" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F196" s="7">
-        <v>5190000</v>
+      <c r="F196" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G196" s="7">
         <v>0</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I196" s="6">
         <v>2</v>
@@ -6866,14 +6876,14 @@
       <c r="E197" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F197" s="7">
-        <v>5190000</v>
+      <c r="F197" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G197" s="7">
         <v>0</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I197" s="6">
         <v>2</v>
@@ -6895,14 +6905,14 @@
       <c r="E198" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F198" s="7">
-        <v>5190000</v>
+      <c r="F198" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G198" s="7">
         <v>0</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I198" s="6">
         <v>2</v>
@@ -6924,14 +6934,14 @@
       <c r="E199" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F199" s="7">
-        <v>5190000</v>
+      <c r="F199" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G199" s="7">
         <v>0</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I199" s="6">
         <v>2</v>
@@ -6953,14 +6963,14 @@
       <c r="E200" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F200" s="7">
-        <v>5190000</v>
+      <c r="F200" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G200" s="7">
         <v>0</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I200" s="6">
         <v>2</v>
@@ -6982,14 +6992,14 @@
       <c r="E201" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F201" s="7">
-        <v>5190000</v>
+      <c r="F201" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G201" s="7">
         <v>0</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I201" s="6">
         <v>2</v>
@@ -7011,14 +7021,14 @@
       <c r="E202" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F202" s="7">
-        <v>5190000</v>
+      <c r="F202" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G202" s="7">
         <v>0</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I202" s="6">
         <v>2</v>
@@ -7040,14 +7050,14 @@
       <c r="E203" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F203" s="7">
-        <v>5190000</v>
+      <c r="F203" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G203" s="7">
         <v>0</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I203" s="6">
         <v>2</v>
@@ -7069,14 +7079,14 @@
       <c r="E204" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F204" s="7">
-        <v>5190000</v>
+      <c r="F204" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G204" s="7">
         <v>0</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I204" s="6">
         <v>2</v>
@@ -7098,14 +7108,14 @@
       <c r="E205" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F205" s="7">
-        <v>5190000</v>
+      <c r="F205" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G205" s="7">
         <v>0</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I205" s="6">
         <v>2</v>
@@ -7127,14 +7137,14 @@
       <c r="E206" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F206" s="7">
-        <v>5190000</v>
+      <c r="F206" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G206" s="7">
         <v>0</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I206" s="6">
         <v>2</v>
@@ -7156,14 +7166,14 @@
       <c r="E207" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F207" s="7">
-        <v>5190000</v>
+      <c r="F207" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G207" s="7">
         <v>0</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I207" s="6">
         <v>2</v>
@@ -7185,14 +7195,14 @@
       <c r="E208" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F208" s="7">
-        <v>5190000</v>
+      <c r="F208" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G208" s="7">
         <v>0</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I208" s="6">
         <v>2</v>
@@ -7214,14 +7224,14 @@
       <c r="E209" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F209" s="7">
-        <v>5190000</v>
+      <c r="F209" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G209" s="7">
         <v>0</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I209" s="6">
         <v>2</v>
@@ -7243,14 +7253,14 @@
       <c r="E210" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F210" s="7">
-        <v>5190000</v>
+      <c r="F210" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G210" s="7">
         <v>0</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I210" s="6">
         <v>2</v>
@@ -7272,14 +7282,14 @@
       <c r="E211" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F211" s="7">
-        <v>5190000</v>
+      <c r="F211" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G211" s="7">
         <v>0</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I211" s="6">
         <v>2</v>
@@ -7301,14 +7311,14 @@
       <c r="E212" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F212" s="7">
-        <v>5190000</v>
+      <c r="F212" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G212" s="7">
         <v>0</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I212" s="6">
         <v>2</v>
@@ -7330,14 +7340,14 @@
       <c r="E213" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F213" s="7">
-        <v>5190000</v>
+      <c r="F213" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="G213" s="7">
         <v>0</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I213" s="6">
         <v>2</v>
